--- a/outputs/december.xlsx
+++ b/outputs/december.xlsx
@@ -671,7 +671,7 @@
         <v>-4455.92</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-4.9</v>
+        <v>-0.049</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>90465.52</v>
@@ -702,7 +702,7 @@
         <v>5148.45</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5.96</v>
+        <v>0.0596</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>86330.2</v>
@@ -733,7 +733,7 @@
         <v>2055.51</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>2.24</v>
+        <v>0.0224</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>91312.66</v>
@@ -764,7 +764,7 @@
         <v>-1477.71</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>-1.58</v>
+        <v>-0.0158</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>93506.78</v>
@@ -795,7 +795,7 @@
         <v>-2993.61</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>-3.25</v>
+        <v>-0.0325</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>92140.14999999999</v>
@@ -832,14 +832,18 @@
       <c r="D3" s="2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>99.51000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.01000000000001</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -859,14 +863,18 @@
       <c r="O3" s="2" t="n">
         <v>-0.08</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>99.56999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.31999999999999</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -886,14 +894,18 @@
       <c r="Z3" s="2" t="n">
         <v>-0.49</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>99.29000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.81999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -913,14 +925,18 @@
       <c r="AK3" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="AL3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AM3" s="1" t="n">
         <v>99.08</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.76000000000001</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -934,16 +950,24 @@
       <c r="AT3" s="1" t="n">
         <v>98.98999999999999</v>
       </c>
-      <c r="AU3" s="1" t="n"/>
-      <c r="AV3" s="2" t="n"/>
-      <c r="AW3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AX3" s="1" t="n">
         <v>99.12</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.81</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -1407,7 +1431,7 @@
         <v>-0.01414</v>
       </c>
       <c r="AV6" s="2" t="n">
-        <v>-1.01</v>
+        <v>-0.0101</v>
       </c>
       <c r="AW6" s="1" t="n">
         <v>1.39583</v>
@@ -1919,7 +1943,7 @@
         <v>1.287</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>56.719</v>
@@ -2012,7 +2036,7 @@
         <v>-1.374</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>-2.35</v>
+        <v>-0.0235</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>58.512</v>
@@ -2043,7 +2067,7 @@
         <v>1.253</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>2.19</v>
+        <v>0.0219</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>57.139</v>
@@ -2361,7 +2385,7 @@
         <v>0.0066</v>
       </c>
       <c r="AV12" s="2" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="AW12" s="1" t="n">
         <v>0.5758</v>
@@ -2520,7 +2544,7 @@
         <v>-0.01646</v>
       </c>
       <c r="AV13" s="2" t="n">
-        <v>-1.01</v>
+        <v>-0.0101</v>
       </c>
       <c r="AW13" s="1" t="n">
         <v>1.62532</v>
@@ -3276,7 +3300,7 @@
         <v>1943.32</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>90141.59</v>
@@ -3307,7 +3331,7 @@
         <v>1631.29</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>90597.77</v>
@@ -3400,7 +3424,7 @@
         <v>-2710.33</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>-2.92</v>
+        <v>-0.0292</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>92454.57000000001</v>
@@ -3435,14 +3459,18 @@
       <c r="D3" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>99.23</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.79000000000001</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -3462,14 +3490,18 @@
       <c r="O3" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>99.31</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.95</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3489,14 +3521,18 @@
       <c r="Z3" s="2" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>99.26000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.59</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3516,14 +3552,18 @@
       <c r="AK3" s="2" t="n">
         <v>-0.46</v>
       </c>
-      <c r="AL3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AM3" s="1" t="n">
         <v>98.76000000000001</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.13</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3543,14 +3583,18 @@
       <c r="AV3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AW3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AX3" s="1" t="n">
         <v>98.53</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.3</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -3723,8 +3767,12 @@
       <c r="B5" s="1" t="n">
         <v>0.5344</v>
       </c>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="2" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" s="1" t="n">
         <v>0.5337</v>
       </c>
@@ -4318,7 +4366,7 @@
         <v>-500</v>
       </c>
       <c r="AV8" s="2" t="n">
-        <v>-1.94</v>
+        <v>-0.0194</v>
       </c>
       <c r="AW8" s="1" t="n">
         <v>25701</v>
@@ -4475,7 +4523,7 @@
         <v>-76.5</v>
       </c>
       <c r="AV9" s="2" t="n">
-        <v>-1.11</v>
+        <v>-0.0111</v>
       </c>
       <c r="AW9" s="1" t="n">
         <v>6914</v>
@@ -4539,7 +4587,7 @@
         <v>2.508</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>4.31</v>
+        <v>0.0431</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>58.161</v>
@@ -4570,7 +4618,7 @@
         <v>1.161</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>60.67</v>
@@ -4601,7 +4649,7 @@
         <v>1.74</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>2.81</v>
+        <v>0.0281</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>61.83</v>
@@ -4632,7 +4680,7 @@
         <v>-1.613</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>-2.54</v>
+        <v>-0.0254</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>63.57</v>
@@ -4758,7 +4806,7 @@
         <v>51.12</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>1.21</v>
+        <v>0.0121</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>4228.66</v>
@@ -5853,7 +5901,7 @@
         <v>-4039.39</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-4.48</v>
+        <v>-0.04480000000000001</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>88150.81</v>
@@ -5884,7 +5932,7 @@
         <v>1587.55</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>86443.14999999999</v>
@@ -5915,7 +5963,7 @@
         <v>-1791.87</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-2.04</v>
+        <v>-0.0204</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>87846.02</v>
@@ -5977,7 +6025,7 @@
         <v>2195.68</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>2.56</v>
+        <v>0.0256</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>85503.66</v>
@@ -6012,14 +6060,18 @@
       <c r="D3" s="2" t="n">
         <v>-0.11</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>98.48</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.14</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6039,14 +6091,18 @@
       <c r="O3" s="2" t="n">
         <v>-0.09</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>98.31999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.87</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6066,14 +6122,18 @@
       <c r="Z3" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>98.64</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6093,14 +6153,18 @@
       <c r="AK3" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AL3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AM3" s="1" t="n">
         <v>98.56</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.17</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6120,14 +6184,18 @@
       <c r="AV3" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="AW3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AX3" s="1" t="n">
         <v>98.75</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.42</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -6837,7 +6905,7 @@
         <v>-470.25</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>-1.87</v>
+        <v>-0.0187</v>
       </c>
       <c r="AA8" s="1" t="n">
         <v>25091.75</v>
@@ -6868,7 +6936,7 @@
         <v>359.5</v>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="AL8" s="1" t="n">
         <v>24744</v>
@@ -6994,7 +7062,7 @@
         <v>-74.5</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>-1.1</v>
+        <v>-0.011</v>
       </c>
       <c r="AA9" s="1" t="n">
         <v>6796</v>
@@ -7089,7 +7157,7 @@
         <v>2.136</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.45</v>
+        <v>0.0345</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>61.941</v>
@@ -7151,7 +7219,7 @@
         <v>2.467</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>3.87</v>
+        <v>0.0387</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>63.749</v>
@@ -7182,7 +7250,7 @@
         <v>-0.724</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>-1.09</v>
+        <v>-0.0109</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>66.215</v>
@@ -7213,7 +7281,7 @@
         <v>1.652</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>2.52</v>
+        <v>0.0252</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>65.492</v>
@@ -7841,7 +7909,7 @@
         <v>2.198</v>
       </c>
       <c r="AV14" s="2" t="n">
-        <v>1.41</v>
+        <v>0.0141</v>
       </c>
       <c r="AW14" s="1" t="n">
         <v>155.551</v>
@@ -8593,14 +8661,18 @@
       <c r="D3" s="2" t="n">
         <v>-0.33</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>98.73</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.2</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8620,14 +8692,18 @@
       <c r="O3" s="2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>98.19</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.84999999999999</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8647,14 +8723,18 @@
       <c r="Z3" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>98.01000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>97.75</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:37 ET</t>
@@ -8674,14 +8754,18 @@
       <c r="AK3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AL3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AM3" s="1" t="n">
         <v>98.01000000000001</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>97.75</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>12/24/25</t>
@@ -8701,14 +8785,18 @@
       <c r="AV3" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AW3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AX3" s="1" t="n">
         <v>98.13</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>97.86</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -9670,7 +9758,7 @@
         <v>1.91</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.84</v>
+        <v>0.0284</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>67.161</v>
@@ -9701,7 +9789,7 @@
         <v>2.427</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>3.51</v>
+        <v>0.0351</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>69.054</v>
@@ -9794,7 +9882,7 @@
         <v>7.372</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>10.25</v>
+        <v>0.1025</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>71.98399999999999</v>
@@ -9827,7 +9915,7 @@
         <v>104.2</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4339.48</v>
@@ -9951,7 +10039,7 @@
         <v>54.44</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>1.22</v>
+        <v>0.0122</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>4480.14</v>
@@ -10956,7 +11044,7 @@
         <v>960.01</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1.1</v>
+        <v>0.011</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>87237.91</v>
@@ -11016,16 +11104,24 @@
       <c r="B3" s="1" t="n">
         <v>98.02</v>
       </c>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="1" t="n"/>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>97.92</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -11045,14 +11141,18 @@
       <c r="O3" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>98.27</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.94</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -11072,14 +11172,18 @@
       <c r="Z3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>98.5</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:35 ET</t>
@@ -11669,7 +11773,7 @@
         <v>-7.134</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-9</v>
+        <v>-0.09</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>79.375</v>
@@ -11700,7 +11804,7 @@
         <v>4.093</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>5.67</v>
+        <v>0.0567</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>72.149</v>
@@ -11731,7 +11835,7 @@
         <v>-4.777</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>-6.27</v>
+        <v>-0.06269999999999999</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>76.24299999999999</v>
@@ -11764,7 +11868,7 @@
         <v>-202.1</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-4.46</v>
+        <v>-0.0446</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4535.12</v>

--- a/outputs/december.xlsx
+++ b/outputs/december.xlsx
@@ -20,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00&quot;%&quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -53,7 +55,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -671,7 +673,7 @@
         <v>-4455.92</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.049</v>
+        <v>-4.9</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>90465.52</v>
@@ -702,7 +704,7 @@
         <v>5148.45</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.0596</v>
+        <v>5.96</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>86330.2</v>
@@ -733,7 +735,7 @@
         <v>2055.51</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>0.0224</v>
+        <v>2.24</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>91312.66</v>
@@ -764,7 +766,7 @@
         <v>-1477.71</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>-0.0158</v>
+        <v>-1.58</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>93506.78</v>
@@ -795,7 +797,7 @@
         <v>-2993.61</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>-0.0325</v>
+        <v>-3.25</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>92140.14999999999</v>
@@ -1431,7 +1433,7 @@
         <v>-0.01414</v>
       </c>
       <c r="AV6" s="2" t="n">
-        <v>-0.0101</v>
+        <v>-1.01</v>
       </c>
       <c r="AW6" s="1" t="n">
         <v>1.39583</v>
@@ -1943,7 +1945,7 @@
         <v>1.287</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.0227</v>
+        <v>2.27</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>56.719</v>
@@ -2036,7 +2038,7 @@
         <v>-1.374</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>-0.0235</v>
+        <v>-2.35</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>58.512</v>
@@ -2067,7 +2069,7 @@
         <v>1.253</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>0.0219</v>
+        <v>2.19</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>57.139</v>
@@ -2385,7 +2387,7 @@
         <v>0.0066</v>
       </c>
       <c r="AV12" s="2" t="n">
-        <v>0.0115</v>
+        <v>1.15</v>
       </c>
       <c r="AW12" s="1" t="n">
         <v>0.5758</v>
@@ -2544,7 +2546,7 @@
         <v>-0.01646</v>
       </c>
       <c r="AV13" s="2" t="n">
-        <v>-0.0101</v>
+        <v>-1.01</v>
       </c>
       <c r="AW13" s="1" t="n">
         <v>1.62532</v>
@@ -3300,7 +3302,7 @@
         <v>1943.32</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0218</v>
+        <v>2.18</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>90141.59</v>
@@ -3331,7 +3333,7 @@
         <v>1631.29</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.0179</v>
+        <v>1.79</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>90597.77</v>
@@ -3424,7 +3426,7 @@
         <v>-2710.33</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>-0.0292</v>
+        <v>-2.92</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>92454.57000000001</v>
@@ -4366,7 +4368,7 @@
         <v>-500</v>
       </c>
       <c r="AV8" s="2" t="n">
-        <v>-0.0194</v>
+        <v>-1.94</v>
       </c>
       <c r="AW8" s="1" t="n">
         <v>25701</v>
@@ -4523,7 +4525,7 @@
         <v>-76.5</v>
       </c>
       <c r="AV9" s="2" t="n">
-        <v>-0.0111</v>
+        <v>-1.11</v>
       </c>
       <c r="AW9" s="1" t="n">
         <v>6914</v>
@@ -4587,7 +4589,7 @@
         <v>2.508</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0431</v>
+        <v>4.31</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>58.161</v>
@@ -4618,7 +4620,7 @@
         <v>1.161</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.0191</v>
+        <v>1.91</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>60.67</v>
@@ -4649,7 +4651,7 @@
         <v>1.74</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>0.0281</v>
+        <v>2.81</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>61.83</v>
@@ -4680,7 +4682,7 @@
         <v>-1.613</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>-0.0254</v>
+        <v>-2.54</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>63.57</v>
@@ -4806,7 +4808,7 @@
         <v>51.12</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.0121</v>
+        <v>1.21</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>4228.66</v>
@@ -5901,7 +5903,7 @@
         <v>-4039.39</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.04480000000000001</v>
+        <v>-4.48</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>88150.81</v>
@@ -5932,7 +5934,7 @@
         <v>1587.55</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.0184</v>
+        <v>1.84</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>86443.14999999999</v>
@@ -5963,7 +5965,7 @@
         <v>-1791.87</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-0.0204</v>
+        <v>-2.04</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>87846.02</v>
@@ -6025,7 +6027,7 @@
         <v>2195.68</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>0.0256</v>
+        <v>2.56</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>85503.66</v>
@@ -6905,7 +6907,7 @@
         <v>-470.25</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>-0.0187</v>
+        <v>-1.87</v>
       </c>
       <c r="AA8" s="1" t="n">
         <v>25091.75</v>
@@ -6936,7 +6938,7 @@
         <v>359.5</v>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.0146</v>
+        <v>1.46</v>
       </c>
       <c r="AL8" s="1" t="n">
         <v>24744</v>
@@ -7062,7 +7064,7 @@
         <v>-74.5</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>-0.011</v>
+        <v>-1.1</v>
       </c>
       <c r="AA9" s="1" t="n">
         <v>6796</v>
@@ -7157,7 +7159,7 @@
         <v>2.136</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.0345</v>
+        <v>3.45</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>61.941</v>
@@ -7219,7 +7221,7 @@
         <v>2.467</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.0387</v>
+        <v>3.87</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>63.749</v>
@@ -7250,7 +7252,7 @@
         <v>-0.724</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>-0.0109</v>
+        <v>-1.09</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>66.215</v>
@@ -7281,7 +7283,7 @@
         <v>1.652</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>0.0252</v>
+        <v>2.52</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>65.492</v>
@@ -7909,7 +7911,7 @@
         <v>2.198</v>
       </c>
       <c r="AV14" s="2" t="n">
-        <v>0.0141</v>
+        <v>1.41</v>
       </c>
       <c r="AW14" s="1" t="n">
         <v>155.551</v>
@@ -9758,7 +9760,7 @@
         <v>1.91</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.0284</v>
+        <v>2.84</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>67.161</v>
@@ -9789,7 +9791,7 @@
         <v>2.427</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0351</v>
+        <v>3.51</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>69.054</v>
@@ -9882,7 +9884,7 @@
         <v>7.372</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>0.1025</v>
+        <v>10.25</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>71.98399999999999</v>
@@ -9915,7 +9917,7 @@
         <v>104.2</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.024</v>
+        <v>2.4</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4339.48</v>
@@ -10039,7 +10041,7 @@
         <v>54.44</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>0.0122</v>
+        <v>1.22</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>4480.14</v>
@@ -11044,7 +11046,7 @@
         <v>960.01</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.011</v>
+        <v>1.1</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>87237.91</v>
@@ -11773,7 +11775,7 @@
         <v>-7.134</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.09</v>
+        <v>-9</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>79.375</v>
@@ -11804,7 +11806,7 @@
         <v>4.093</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0567</v>
+        <v>5.67</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>72.149</v>
@@ -11835,7 +11837,7 @@
         <v>-4.777</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>-0.06269999999999999</v>
+        <v>-6.27</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>76.24299999999999</v>
@@ -11868,7 +11870,7 @@
         <v>-202.1</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.0446</v>
+        <v>-4.46</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4535.12</v>

--- a/outputs/december.xlsx
+++ b/outputs/december.xlsx
@@ -834,18 +834,14 @@
       <c r="D3" s="2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>99.51000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.01000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -865,18 +861,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.08</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.56999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.31999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -896,18 +888,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.49</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.29000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.81999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -927,18 +915,14 @@
       <c r="AK3" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>99.08</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.76000000000001</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -958,18 +942,14 @@
       <c r="AV3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>99.12</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.81</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -3461,18 +3441,14 @@
       <c r="D3" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>99.23</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.79000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -3492,18 +3468,14 @@
       <c r="O3" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.31</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.95</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3523,18 +3495,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.26000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.59</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3554,18 +3522,14 @@
       <c r="AK3" s="2" t="n">
         <v>-0.46</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>98.76000000000001</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.13</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3585,18 +3549,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.53</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.3</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -6062,18 +6022,14 @@
       <c r="D3" s="2" t="n">
         <v>-0.11</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.48</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.14</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6093,18 +6049,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.09</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>98.31999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.87</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6124,18 +6076,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>98.64</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6155,18 +6103,14 @@
       <c r="AK3" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>98.56</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.17</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6186,18 +6130,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.75</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.42</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -8663,18 +8603,14 @@
       <c r="D3" s="2" t="n">
         <v>-0.33</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.73</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.2</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8694,18 +8630,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>98.19</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.84999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8725,18 +8657,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>98.01000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>97.75</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:37 ET</t>
@@ -8756,18 +8684,14 @@
       <c r="AK3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>98.01000000000001</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>97.75</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>12/24/25</t>
@@ -8787,18 +8711,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.13</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>97.86</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -11112,18 +11032,14 @@
       <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>97.92</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -11143,18 +11059,14 @@
       <c r="O3" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>98.27</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.94</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -11174,18 +11086,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>98.5</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:35 ET</t>
